--- a/EDA/test_1.xlsx
+++ b/EDA/test_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4c98b824bff33be6/MSc. Artificial Intelligence VU/MSc. AI Year 1/Data Mining Techniques/Assignment 2/dmt-2/EDA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4c98b824bff33be6/MSc. Artificial Intelligence VU/MSc. AI Year 1/Data Mining Techniques/Assignment 2/new_clone/dmt-2/EDA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_371659DF408413F38C170BC18B0235B66FD8210C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F3C798F-6178-420D-8311-F5FB5D68B727}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_371659DF408413F38C170BC18B0235B66FD8210C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6335AAC6-33DF-411C-861C-D9C41DB2F3B8}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2268" yWindow="2376" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new_sheet" sheetId="1" r:id="rId1"/>
@@ -594,6 +594,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="6" max="6" width="22.5546875" customWidth="1"/>
     <col min="46" max="46" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="22.77734375" bestFit="1" customWidth="1"/>
